--- a/Specialization_investigation/Descriptive/comparison_with_not_focused_tables.xlsx
+++ b/Specialization_investigation/Descriptive/comparison_with_not_focused_tables.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>613</v>
+        <v>731</v>
       </c>
       <c r="C2" t="n">
         <v>65</v>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.67</v>
+        <v>2.49</v>
       </c>
       <c r="C3" t="n">
         <v>6.2</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="C4" t="n">
         <v>3.04</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.69</v>
+        <v>3.39</v>
       </c>
       <c r="C5" t="n">
         <v>2.91</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.93000000000001</v>
+        <v>84.09</v>
       </c>
       <c r="C6" t="n">
         <v>18.35</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.06</v>
+        <v>3.74</v>
       </c>
       <c r="C7" t="n">
         <v>5.65</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.21</v>
+        <v>32.48</v>
       </c>
       <c r="C8" t="n">
         <v>45.22</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.63</v>
+        <v>57.62</v>
       </c>
       <c r="C9" t="n">
         <v>48.23</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.17</v>
+        <v>12.24</v>
       </c>
       <c r="C10" t="n">
         <v>12.48</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.87</v>
+        <v>40.44</v>
       </c>
       <c r="C11" t="n">
         <v>26.95</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.6</v>
+        <v>35.25</v>
       </c>
       <c r="C12" t="n">
         <v>36.59</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.73</v>
+        <v>18.57</v>
       </c>
       <c r="C13" t="n">
         <v>22.15</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="C14" t="n">
         <v>14.31</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="C15" t="n">
         <v>33</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.52</v>
+        <v>36.73</v>
       </c>
       <c r="C16" t="n">
         <v>37.88</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.04</v>
+        <v>23.26</v>
       </c>
       <c r="C17" t="n">
         <v>20.58</v>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.64</v>
+        <v>11.11</v>
       </c>
       <c r="C18" t="n">
         <v>8.529999999999999</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.54000000000001</v>
+        <v>63.68</v>
       </c>
       <c r="C19" t="n">
         <v>64.25</v>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.27</v>
+        <v>5.11</v>
       </c>
       <c r="C3" t="n">
         <v>12.52</v>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.67</v>
+        <v>7.32</v>
       </c>
       <c r="C4" t="n">
         <v>4.75</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.47</v>
+        <v>4.28</v>
       </c>
       <c r="C5" t="n">
         <v>2.94</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183.77</v>
+        <v>170.96</v>
       </c>
       <c r="C6" t="n">
         <v>26.95</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.74</v>
+        <v>5.55</v>
       </c>
       <c r="C7" t="n">
         <v>3.63</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.03</v>
+        <v>41.32</v>
       </c>
       <c r="C8" t="n">
         <v>44.39</v>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.77</v>
+        <v>43.21</v>
       </c>
       <c r="C9" t="n">
         <v>42.94</v>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.65</v>
+        <v>26.01</v>
       </c>
       <c r="C10" t="n">
         <v>26.85</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.71</v>
+        <v>44.07</v>
       </c>
       <c r="C11" t="n">
         <v>40.61</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="C12" t="n">
         <v>41.87</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.94</v>
+        <v>33.04</v>
       </c>
       <c r="C13" t="n">
         <v>34.35</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.68</v>
+        <v>19.66</v>
       </c>
       <c r="C14" t="n">
         <v>32.46</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.63</v>
+        <v>27.36</v>
       </c>
       <c r="C15" t="n">
         <v>30.71</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.3</v>
+        <v>22.08</v>
       </c>
       <c r="C16" t="n">
         <v>27.54</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.62</v>
+        <v>22.6</v>
       </c>
       <c r="C17" t="n">
         <v>27.6</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.35</v>
+        <v>16.36</v>
       </c>
       <c r="C18" t="n">
         <v>16.46</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.77</v>
+        <v>30.68</v>
       </c>
       <c r="C19" t="n">
         <v>37.37</v>
